--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_4484.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_4484.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Rashid Khan</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Leg Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3846</t>
+          <t>3846</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3847</t>
+          <t>3847</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3849</t>
+          <t>3849</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3850</t>
+          <t>3850</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3869</t>
+          <t>3869</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3871</t>
+          <t>3871</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3873</t>
+          <t>3873</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -856,7 +921,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>04/07/2016</t>
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3912</t>
+          <t>3912</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -904,7 +968,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>06/07/2016</t>
@@ -912,7 +975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3913</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -964,7 +1027,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3915</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1016,7 +1079,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3916</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1068,7 +1131,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3917</t>
+          <t>3917</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1120,7 +1183,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3918</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1172,7 +1235,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3936</t>
+          <t>3936</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1224,7 +1287,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3938</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1276,7 +1339,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3941</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1328,7 +1391,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3991</t>
+          <t>3991</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1380,7 +1443,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3993</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1432,7 +1495,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3994</t>
+          <t>3994</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1484,7 +1547,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3996</t>
+          <t>3996</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1536,7 +1599,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3998</t>
+          <t>3998</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1576,7 +1639,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>15/03/2017</t>
@@ -1584,7 +1646,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4006</t>
+          <t>4006</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1636,7 +1698,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4007</t>
+          <t>4007</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1688,7 +1750,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4008</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1740,7 +1802,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4009</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1780,7 +1842,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>24/03/2017</t>
@@ -1788,7 +1849,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4010</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1828,7 +1889,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>09/06/2017</t>
@@ -1836,7 +1896,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4040</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1888,7 +1948,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4043</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1928,7 +1988,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -1936,7 +1995,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4046</t>
+          <t>4046</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1988,7 +2047,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4092</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2040,7 +2099,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4093</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2092,7 +2151,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4097</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2132,7 +2191,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>09/02/2018</t>
@@ -2140,7 +2198,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4129</t>
+          <t>4129</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2192,7 +2250,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4131</t>
+          <t>4131</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2232,7 +2290,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>13/02/2018</t>
@@ -2240,7 +2297,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4132</t>
+          <t>4132</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2280,7 +2337,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -2288,7 +2344,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4134</t>
+          <t>4134</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2340,7 +2396,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4136</t>
+          <t>4136</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2392,7 +2448,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4140</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2444,7 +2500,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4145</t>
+          <t>4145</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2496,7 +2552,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4147</t>
+          <t>4147</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2548,7 +2604,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4154</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2588,7 +2644,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>20/03/2018</t>
@@ -2596,7 +2651,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4160</t>
+          <t>4160</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2636,7 +2691,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>23/03/2018</t>
@@ -2644,7 +2698,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4163</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2684,7 +2738,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>25/03/2018</t>
@@ -2692,7 +2745,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2744,7 +2797,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4189</t>
+          <t>4189</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2796,7 +2849,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4190</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2836,7 +2889,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>31/08/2018</t>
@@ -2844,7 +2896,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4192</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2896,7 +2948,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4195</t>
+          <t>4195</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2948,7 +3000,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2988,7 +3040,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>21/09/2018</t>
@@ -2996,7 +3047,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4200</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3048,7 +3099,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4202</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3100,7 +3151,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4203</t>
+          <t>4203</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3140,7 +3191,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>28/02/2019</t>
@@ -3148,7 +3198,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4257</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3200,7 +3250,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4259</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3252,7 +3302,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4262</t>
+          <t>4262</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3304,7 +3354,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4265</t>
+          <t>4265</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3356,7 +3406,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4267</t>
+          <t>4267</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3408,7 +3458,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4299</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3460,7 +3510,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4301</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3512,7 +3562,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3564,7 +3614,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4309</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3616,7 +3666,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4315</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3668,7 +3718,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4323</t>
+          <t>4323</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3720,7 +3770,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3772,7 +3822,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3824,7 +3874,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3876,7 +3926,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3928,7 +3978,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3980,7 +4030,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4032,7 +4082,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4084,7 +4134,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4136,7 +4186,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4176,7 +4226,6 @@
           <t>73</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>24/01/2021</t>
@@ -4184,7 +4233,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4236,7 +4285,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4288,7 +4337,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4525</t>
+          <t>4525</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4340,7 +4389,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4528</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4392,7 +4441,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4530</t>
+          <t>4530</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4444,7 +4493,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4496,7 +4545,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4538</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4536,7 +4585,6 @@
           <t>80</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>28/02/2022</t>
@@ -4544,7 +4592,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4539</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4596,7 +4644,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4582</t>
+          <t>4582</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4636,7 +4684,6 @@
           <t>82</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>06/06/2022</t>
@@ -4644,7 +4691,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4585</t>
+          <t>4585</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4696,7 +4743,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4588</t>
+          <t>4588</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4748,7 +4795,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4671</t>
+          <t>4671</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4800,7 +4847,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4674</t>
+          <t>4674</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4852,7 +4899,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4675</t>
+          <t>4675</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4891,7 +4938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4913,7 +4960,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4950,7 +4997,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3846</t>
+          <t>3846</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4987,7 +5034,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3847</t>
+          <t>3847</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5024,7 +5071,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3849</t>
+          <t>3849</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -5061,7 +5108,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3850</t>
+          <t>3850</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5098,7 +5145,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3869</t>
+          <t>3869</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5135,7 +5182,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3871</t>
+          <t>3871</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5172,7 +5219,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3873</t>
+          <t>3873</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -5209,7 +5256,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3913</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -5246,7 +5293,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3915</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5283,7 +5330,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3916</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5320,7 +5367,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3917</t>
+          <t>3917</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5357,7 +5404,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3918</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5394,7 +5441,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3936</t>
+          <t>3936</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5431,7 +5478,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3938</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5468,7 +5515,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3941</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5505,7 +5552,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3991</t>
+          <t>3991</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5542,7 +5589,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3993</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5579,7 +5626,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3994</t>
+          <t>3994</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5616,7 +5663,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3996</t>
+          <t>3996</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -5653,7 +5700,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3998</t>
+          <t>3998</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5690,7 +5737,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4006</t>
+          <t>4006</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5727,7 +5774,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4007</t>
+          <t>4007</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5764,7 +5811,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4008</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5801,7 +5848,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4009</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5838,7 +5885,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4010</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5875,7 +5922,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4040</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5912,7 +5959,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4043</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5949,7 +5996,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4092</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5986,7 +6033,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4093</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6023,7 +6070,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4097</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6060,7 +6107,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4129</t>
+          <t>4129</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6097,7 +6144,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4131</t>
+          <t>4131</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6134,7 +6181,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4132</t>
+          <t>4132</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6171,7 +6218,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4134</t>
+          <t>4134</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6208,7 +6255,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4136</t>
+          <t>4136</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -6245,7 +6292,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4140</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6282,7 +6329,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4145</t>
+          <t>4145</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -6319,7 +6366,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4147</t>
+          <t>4147</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -6356,7 +6403,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4154</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -6393,7 +6440,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4160</t>
+          <t>4160</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -6430,7 +6477,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4163</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6467,7 +6514,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -6504,7 +6551,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4189</t>
+          <t>4189</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -6541,7 +6588,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4190</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6578,7 +6625,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4192</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6615,7 +6662,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4195</t>
+          <t>4195</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6652,7 +6699,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6689,7 +6736,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4200</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6726,7 +6773,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4202</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6763,7 +6810,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4203</t>
+          <t>4203</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6800,7 +6847,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4257</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6837,7 +6884,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4262</t>
+          <t>4262</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6874,7 +6921,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4265</t>
+          <t>4265</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6911,7 +6958,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4267</t>
+          <t>4267</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6948,7 +6995,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4299</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6985,7 +7032,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4301</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -7022,7 +7069,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -7059,7 +7106,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4309</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7096,7 +7143,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4323</t>
+          <t>4323</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7133,7 +7180,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7170,7 +7217,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7207,7 +7254,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7244,7 +7291,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7281,7 +7328,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7318,7 +7365,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7355,7 +7402,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -7392,7 +7439,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -7429,7 +7476,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -7466,7 +7513,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -7503,7 +7550,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7540,7 +7587,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4525</t>
+          <t>4525</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -7577,7 +7624,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4528</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -7614,7 +7661,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4530</t>
+          <t>4530</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -7651,7 +7698,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -7688,7 +7735,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4538</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -7725,7 +7772,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4539</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -7762,7 +7809,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4582</t>
+          <t>4582</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -7799,7 +7846,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4585</t>
+          <t>4585</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -7836,7 +7883,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4588</t>
+          <t>4588</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -7873,7 +7920,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4671</t>
+          <t>4671</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -7910,7 +7957,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4675</t>
+          <t>4675</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -7936,6 +7983,553 @@
       <c r="G82" t="inlineStr">
         <is>
           <t>4/37</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3.52%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3.13%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>19.16%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>18.05%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4525</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4528</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5.91%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4530</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5.12%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4582</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>14.13%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4585</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4588</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4.38%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4674</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.32%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_4484.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_4484.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8116,7 +8117,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8172,7 +8172,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8218,9 +8217,6 @@
       <c r="B8" t="n">
         <v>9</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8263,10 +8259,6 @@
           <t>4525</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8352,7 +8344,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8365,10 +8356,6 @@
           <t>4538</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8384,9 +8371,6 @@
       <c r="B15" t="n">
         <v>8</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8432,9 +8416,6 @@
       <c r="B17" t="n">
         <v>8</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8477,10 +8458,6 @@
           <t>4671</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8523,15 +8500,347 @@
           <t>4675</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4525</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4528</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4530</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4582</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4585</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4588</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_4484.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_4484.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -922,6 +920,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>04/07/2016</t>
@@ -969,6 +968,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>06/07/2016</t>
@@ -1640,6 +1640,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>15/03/2017</t>
@@ -1843,6 +1844,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>24/03/2017</t>
@@ -1890,6 +1892,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>09/06/2017</t>
@@ -1989,6 +1992,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -2192,6 +2196,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>09/02/2018</t>
@@ -2291,6 +2296,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>13/02/2018</t>
@@ -2338,6 +2344,7 @@
           <t>36</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -2645,6 +2652,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>20/03/2018</t>
@@ -2692,6 +2700,7 @@
           <t>43</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>23/03/2018</t>
@@ -2739,6 +2748,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>25/03/2018</t>
@@ -2890,6 +2900,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>31/08/2018</t>
@@ -3041,6 +3052,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>21/09/2018</t>
@@ -3192,6 +3204,7 @@
           <t>53</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>28/02/2019</t>
@@ -4227,6 +4240,7 @@
           <t>73</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>24/01/2021</t>
@@ -4586,6 +4600,7 @@
           <t>80</t>
         </is>
       </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>28/02/2022</t>
@@ -4685,6 +4700,7 @@
           <t>82</t>
         </is>
       </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>06/06/2022</t>
@@ -7990,859 +8006,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>9</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3.52%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.13%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4377</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4378</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.00%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4379</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>19.16%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>18.05%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4525</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4528</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5.91%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4530</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.12%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4538</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4539</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4582</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>14.13%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4585</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4588</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>8</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.38%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4671</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4674</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.32%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4675</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4335</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4377</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4378</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4379</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4525</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4528</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4530</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4538</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4539</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4582</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4585</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4588</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4671</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4675</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_4484.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_4484.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -920,7 +922,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>04/07/2016</t>
@@ -968,7 +969,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>06/07/2016</t>
@@ -1640,7 +1640,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>15/03/2017</t>
@@ -1844,7 +1843,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>24/03/2017</t>
@@ -1892,7 +1890,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>09/06/2017</t>
@@ -1992,7 +1989,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -2196,7 +2192,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>09/02/2018</t>
@@ -2296,7 +2291,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>13/02/2018</t>
@@ -2344,7 +2338,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -2652,7 +2645,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>20/03/2018</t>
@@ -2700,7 +2692,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>23/03/2018</t>
@@ -2748,7 +2739,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>25/03/2018</t>
@@ -2900,7 +2890,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>31/08/2018</t>
@@ -3052,7 +3041,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>21/09/2018</t>
@@ -3204,7 +3192,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>28/02/2019</t>
@@ -4240,7 +4227,6 @@
           <t>73</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>24/01/2021</t>
@@ -4600,7 +4586,6 @@
           <t>80</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>28/02/2022</t>
@@ -4700,7 +4685,6 @@
           <t>82</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>06/06/2022</t>
@@ -8006,4 +7990,3220 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3846</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.95%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3847</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3849</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3850</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.63%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3869</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5.17%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3871</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>6.21%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3873</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3912</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3913</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7.20%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3916</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3917</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.20%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3918</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>15.81%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3936</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3938</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3941</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3993</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1.26%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.59%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3996</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>9.91%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3998</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>7.11%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>11</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1.78%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>8</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4010</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>9</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4043</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>9</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>5.19%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4046</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4092</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>8</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.17%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4093</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>8</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>7.27%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4097</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>8</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.86%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4129</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>11</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4131</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>9</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>4.47%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4132</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4134</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>5</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4136</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>17.84%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4140</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>9</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4145</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>8</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>3.09%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4147</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4160</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>8</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4163</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>8</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4164</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>8</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4189</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>9</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4190</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>9</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>5.49%</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4192</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>9</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4195</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>9</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>5.22%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4198</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>9</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.35%</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>9</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4202</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2.03%</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4203</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4257</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>9</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4259</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4262</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4265</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>9</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>23.32%</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4267</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>8</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>16.20%</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4299</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>8</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>11.59%</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4301</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>8</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>8</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>13.04%</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>8</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1.32%</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>9</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4323</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>9</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>28.00%</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>9</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>9</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>3.52%</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>8</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>3.13%</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>9</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>8</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>8</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>9</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>19.16%</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>9</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>9</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>18.05%</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4525</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4528</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>7</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>5.91%</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4530</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>7</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>5.12%</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>8</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>8</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4582</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>7</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>14.13%</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4585</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>8</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>4588</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>8</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>4.38%</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4674</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>8</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1.32%</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3846</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3847</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3849</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3850</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3869</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3871</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3873</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3913</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3916</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3917</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3918</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3936</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3938</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3941</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3993</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3996</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3998</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4010</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4043</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4092</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4093</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4097</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4129</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4131</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4132</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4134</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4136</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4140</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4145</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4147</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4160</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4163</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4164</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4189</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4190</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4192</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4195</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4198</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4202</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4203</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4257</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4262</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4265</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4267</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4299</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4301</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4323</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4525</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4528</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4530</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4582</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4585</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4588</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>